--- a/biology/Médecine/Rita_El_Khayat/Rita_El_Khayat.xlsx
+++ b/biology/Médecine/Rita_El_Khayat/Rita_El_Khayat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rita Ghita El Khayat, née en 1944 à Rabat au Maroc, est une psychiatre, anthropologue et écrivaine marocaine.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rita Ghita El Khayat étudie la médecine à Rabat, commence la psychiatrie à Casablanca, se spécialise en Médecine du Travail (Université de Bordeaux)   et termine ses études de spécialités médicales de Psychiatrie et de Médecine Aéronautique à Paris[1].
-Pendant ses études, elle a été active en tant qu'animatrice de radio et de télévision et artiste de cinéma. En 1999, elle fonde l'"Association Aïni Bennaï pour la culture et le loisir" afin d'élargir la culture au Maroc et au Maghreb. Ses œuvres portent notamment sur la place de la femme au Maghreb[2], dans le monde arabe et islamique, puis sa pensée investit de plus en plus le féminin, avec une orientation universaliste, par exemple dans "Le complexe de Médée" publié uniquement en italien et en allemand . Elle analyse aussi les approches psychiatriques au Maghreb, à la confluence des conceptions et des pratiques scientifiques et religieuses traditionnelles, et de la psychiatrie développée dans les pays occidentaux[1]. Le 15 février 1997, elle perd sa fille unique, et consacre quelques années plus tard un ouvrage à ce drame, Le désenfantement, publié en 2002, pour exorciser sa douleur[3].
-Elle a été membre du conseil d’administration du Festival international du film de Marrakech (FIFM), et du jury en 2008, de son lancement en 2001/2002 jusqu'en 2008[4], puis première présidente femme de la commission du Fonds d’aide à la production cinématographique, en 2011[5], 2020 et 2021-2022.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rita Ghita El Khayat étudie la médecine à Rabat, commence la psychiatrie à Casablanca, se spécialise en Médecine du Travail (Université de Bordeaux)   et termine ses études de spécialités médicales de Psychiatrie et de Médecine Aéronautique à Paris.
+Pendant ses études, elle a été active en tant qu'animatrice de radio et de télévision et artiste de cinéma. En 1999, elle fonde l'"Association Aïni Bennaï pour la culture et le loisir" afin d'élargir la culture au Maroc et au Maghreb. Ses œuvres portent notamment sur la place de la femme au Maghreb, dans le monde arabe et islamique, puis sa pensée investit de plus en plus le féminin, avec une orientation universaliste, par exemple dans "Le complexe de Médée" publié uniquement en italien et en allemand . Elle analyse aussi les approches psychiatriques au Maghreb, à la confluence des conceptions et des pratiques scientifiques et religieuses traditionnelles, et de la psychiatrie développée dans les pays occidentaux. Le 15 février 1997, elle perd sa fille unique, et consacre quelques années plus tard un ouvrage à ce drame, Le désenfantement, publié en 2002, pour exorciser sa douleur.
+Elle a été membre du conseil d’administration du Festival international du film de Marrakech (FIFM), et du jury en 2008, de son lancement en 2001/2002 jusqu'en 2008, puis première présidente femme de la commission du Fonds d’aide à la production cinématographique, en 2011, 2020 et 2021-2022.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Production littéraire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rita produit plus de 350 articles et 30 romans.
 Le Monde Arabe au Féminin, Essai, L’Harmattan, Paris, 1985, 1986, 1988: 3 éditions,
@@ -606,8 +622,43 @@
 -2006 pubblicazione de "Il Complesso di Medea: le madri mediterranee", L’ANCORA DEL MEDITERRANEO, Napoli, (Anche pubblicato in Germania)
 -2007 pubblicazione del romanzo 'IL LEGAME' – BALDINI CASTOLDI DALAI. Già prima di uscire il testo ha riscosso uno speciale interesse. La rivista "PerMe" ha dedicato una intervista a Rita El Khayat su temi relativi al suo lavoro di psichiatra. 'FLAIR' ha pubblicato una lunga intervista sul suo primo romanzo apparso in Italia. ‘VENERDI' e “D-donna” di Repubblica le hanno dedicato ampio spazio, così come L’UNITA’ le ha dedicato un’intera pagina dal titolo “Rita, una Rosa contro il Terrorismo”
 -2007 "Rita El Khayat: Fra testimonianza e realtà. Donne arabe, cultura, formazione e percorsi di identità", curato dalla Prof.ssa Aureliana Alberici – ANICIA Editore (Atti del Convegno tenuto nel 2006 intorno alla figura di Rita El Khayat e poi adottato in facoltà)
--2007 “GEORGES DEVEREUX – Il Mio Maestro” - ARMANDO Editore, Roma. Premio Francesco Alzatore, Cagliari, Sardigna, 2008
--2008 “Rita El Khayat, N-èmica - Lettera aperta all’Occidente”, AVAGLIANO Editore, Roma
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rita_El_Khayat</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rita_El_Khayat</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Production littéraire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-2007 “GEORGES DEVEREUX – Il Mio Maestro” - ARMANDO Editore, Roma. Premio Francesco Alzatore, Cagliari, Sardigna, 2008</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-2008 “Rita El Khayat, N-èmica - Lettera aperta all’Occidente”, AVAGLIANO Editore, Roma
 -2009 “CITTADINE DEL MEDITERRANEO – Il Marocco delle Donne” con prefazione di Emma Bonino, Castelvecchi Editore, Roma
 -2010: “IL FASTOSO MAROCCO DEI COSTUMI E DELLE TRADIZIONI” FBE Edizioni, Milano
 -2011 ‘L’Acqua è lo sguardo della Terra’, con prefazione di Tara Gandhi (nipote del Mahatma Gandhi anche amica di Rita El Khayat), Edizioni TRACCE, Premio Eugenia Tantucci, Roma, 10 dicembre 2013
